--- a/excel/已失效比赛.xlsx
+++ b/excel/已失效比赛.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,27 +506,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cambodia Cup</t>
+          <t>2nd Division</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kompong Cham v Kep</t>
+          <t>Sporting Alexandria - Al-Sekka Al-Hadid</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6751744</v>
+        <v>6770673</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -536,12 +536,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-15 20:30</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 0秒</t>
+          <t>1天 0小时 38分钟 11秒</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cambodia Cup</t>
+          <t>2nd Division</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Thbong Khmum v Siem Reap</t>
+          <t>Kima Aswan - Proxy</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6754409</v>
+        <v>6780010</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -586,12 +586,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 20:30</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 1秒</t>
+          <t>0天 0小时 38分钟 12秒</t>
         </is>
       </c>
     </row>
@@ -606,27 +606,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Guwahati Premier League</t>
+          <t>2nd Division</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ASEB FC v United Chirang Duar FC</t>
+          <t>Asyut Petroleum SC - La Viena FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6749706</v>
+        <v>6780028</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -636,12 +636,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 20:30</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 1秒</t>
+          <t>0天 0小时 38分钟 12秒</t>
         </is>
       </c>
     </row>
@@ -656,27 +656,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Liga 1</t>
+          <t>2nd Division</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Persebaya Surabaya v Persik Kediri</t>
+          <t>Baladiyyat AL Mehalla - Tanta FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6748824</v>
+        <v>6780030</v>
       </c>
       <c r="G5" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -686,12 +686,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-12-11 16:30</t>
+          <t>2024-12-16 20:30</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0天 0小时 30分钟 2秒</t>
+          <t>0天 0小时 38分钟 13秒</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Super League</t>
+          <t>2nd Division</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Samwest Blackboots v Mofa</t>
+          <t>Dayrout - El Mansoura SC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6750475</v>
+        <v>6780033</v>
       </c>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -736,12 +736,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 20:30</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 2秒</t>
+          <t>0天 0小时 38分钟 14秒</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Super League</t>
+          <t>Premier League 2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MCF vs Fortune Sacco</t>
+          <t>Crystal Palace U21 - FC Liverpool U21</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6754320</v>
+        <v>6779528</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -786,12 +786,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-12-11 15:00</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0天 2小时 0分钟 3秒</t>
+          <t>0天 1小时 8分钟 15秒</t>
         </is>
       </c>
     </row>
@@ -806,27 +806,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>League Cup</t>
+          <t>Professional Development League U21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wiang Sa Surat Thani City v Pattani</t>
+          <t>Watford FC U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6753232</v>
+        <v>6781349</v>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -836,12 +836,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-12-11 16:30</t>
+          <t>2024-12-16 21:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0天 0小时 30分钟 4秒</t>
+          <t>0天 0小时 8分钟 16秒</t>
         </is>
       </c>
     </row>
@@ -856,77 +856,77 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Turkey U19 Elit Ligi</t>
+          <t>Higher League</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kayserispor v Boluspor</t>
+          <t>Dedebit FC - Ambo Ketema</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6750535</v>
+        <v>6780225</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-12-11 17:00</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0天 0小时 0分钟 4秒</t>
+          <t>0天 1小时 8分钟 16秒</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WNBL</t>
+          <t>Higher League</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Southside Flyers v Geelong Supercats</t>
+          <t>Axum Ketema - Nib FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6748565</v>
+        <v>6780226</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -936,47 +936,47 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 21:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 5秒</t>
+          <t>0天 0小时 8分钟 17秒</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Empress Cup, Women</t>
+          <t>Super League 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Toyota Boshoku Sunshine Rabbits v Fujitsu Red Wave</t>
+          <t>Asteras Tripolis B - GS Ilioupoli</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6749401</v>
+        <v>6749592</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -986,97 +986,97 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-15 21:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 5秒</t>
+          <t>1天 0小时 8分钟 18秒</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Liga Profesional de Baloncesto</t>
+          <t>Super League 2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Correcaminos de Colon v Dragones De Don Bosco</t>
+          <t>PAOK Thessaloniki B - Kampaniakos</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6713893</v>
+        <v>6749618</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2024-12-07 10:00</t>
+          <t>2024-12-15 21:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4天 7小时 0分钟 6秒</t>
+          <t>1天 0小时 8分钟 19秒</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>World Amateur League</t>
+          <t>Liga 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Australian Kangoos v Indian Elephants</t>
+          <t>Persis Solo - PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6754511</v>
+        <v>6762993</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -1086,47 +1086,47 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2024-12-11 16:40</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0天 0小时 20分钟 6秒</t>
+          <t>0天 1小时 8分钟 19秒</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>National League, Women</t>
+          <t>Liga 3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VC Almaty v VC Astana</t>
+          <t>Tornado - Psgc Ciamis</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6750622</v>
+        <v>6782914</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -1136,91 +1136,91 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 7秒</t>
+          <t>0天 1小时 8分钟 20秒</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>National League, Women</t>
+          <t>Azadegan League</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Karaganda v Gracia KZ Uralsk</t>
+          <t>Damash Gilan - Sanat Mes Kerman FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6750623</v>
+        <v>6218770</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2024-12-11 16:30</t>
+          <t>2024-12-13 19:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0天 0小时 30分钟 7秒</t>
+          <t>3天 2小时 8分钟 21秒</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Vysshaya Liga A</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Turkestan v Ushkyn-Semey</t>
+          <t>Foolad Mobarakeh Sepahan SC - Persepolis FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6753256</v>
+        <v>6779961</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2024-12-11 15:55</t>
+          <t>2024-12-16 19:45</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0天 1小时 5分钟 8秒</t>
+          <t>0天 1小时 23分钟 22秒</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Spikers Turf</t>
+          <t>Jordan 1st Division</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Savouge Aesthetics v Criss Cross King Crunchers</t>
+          <t>Jerash Club - Om Al Qutain</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6750533</v>
+        <v>6784061</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -1286,197 +1286,197 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2024-12-11 15:55</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0天 1小时 5分钟 9秒</t>
+          <t>0天 1小时 8分钟 23秒</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>League 2 Women</t>
+          <t>Jordan 1st Division</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Okyanus Koleji W v Gaziemir Bld W</t>
+          <t>Al-Baqaa - Amman FC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6670788</v>
+        <v>6784062</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2024-12-01 18:00</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>9天 23小时 0分钟 9秒</t>
+          <t>0天 1小时 8分钟 23秒</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Primera, Women</t>
+          <t>Jordan 1st Division</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sj de carrasco B W v Nacional B W</t>
+          <t>Al-Jalil - AL Wehdat B</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6675576</v>
+        <v>6784063</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2024-12-01 22:55</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>9天 18小时 5分钟 10秒</t>
+          <t>0天 1小时 8分钟 24秒</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Itf Egypt F24, Men Singles</t>
+          <t>Super League</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gengel, Marek v D'Agostino, Stefano</t>
+          <t>Naivas - Dimba Patriots</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6751468</v>
+        <v>6780603</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 10秒</t>
+          <t>0天 1小时 8分钟 25秒</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Itf Egypt F24, Men Singles</t>
+          <t>Super League</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bajurko, Adam v OH, Chan-Yeong</t>
+          <t>SS Assad - Darajani Gogo FC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6751476</v>
+        <v>6781327</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -1486,97 +1486,97 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 11秒</t>
+          <t>0天 1小时 8分钟 26秒</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Itf Egypt F24, Men Singles</t>
+          <t>Malaysia MFL Cup U23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Parker, Stuart v El Sallaly, Akram</t>
+          <t>Sabah U23 - Selangor Ii U23</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6751465</v>
+        <v>6780862</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 19:30</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 11秒</t>
+          <t>0天 1小时 38分钟 27秒</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Itf Egypt F24, Men Singles</t>
+          <t>Rwanda Premier League</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Safwat, Mohamed v Hamza Reguig, Samir</t>
+          <t>Vision FC (Rwa) - Etincelles</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6752131</v>
+        <v>6781351</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -1586,97 +1586,97 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 21:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 12秒</t>
+          <t>0天 0小时 8分钟 27秒</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ITF South Africa F7, Men Singles</t>
+          <t>Division 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salton, Dylan v Lorusso, Lorenzo</t>
+          <t>AL Tai - AL Arabi (SA)</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6749457</v>
+        <v>6781241</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 20:25</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 12秒</t>
+          <t>0天 0小时 43分钟 28秒</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ITF South Africa F7, Men Singles</t>
+          <t>WCBA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Seleznev, Bogdan v Benaim, Max</t>
+          <t>Henan Phoenix - Fujian Xiamen Egrets</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6749453</v>
+        <v>6783049</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
@@ -1686,47 +1686,47 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 19:30</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 13秒</t>
+          <t>0天 1小时 38分钟 29秒</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Itf Turkey F34, Men Singles</t>
+          <t>WCBA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bora Sengul vs Ilya Snitari</t>
+          <t>Shanghai Baoshan Dahua Swordfish - Jiangsu Phoenix</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6749282</v>
+        <v>6783056</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -1736,97 +1736,97 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2024-12-11 15:00</t>
+          <t>2024-12-16 19:30</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0天 2小时 0分钟 13秒</t>
+          <t>0天 1小时 38分钟 30秒</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Itf Egypt 24a, Women Singles</t>
+          <t>WCBA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Arlinda Rushiti vs Pei-Chi Lee</t>
+          <t>Jiangxi Ganxing - Wuhan Shengfan</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6751098</v>
+        <v>6783057</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2024-12-11 15:30</t>
+          <t>2024-12-16 19:30</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0天 1小时 30分钟 14秒</t>
+          <t>0天 1小时 38分钟 30秒</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Itf Egypt 24a, Women Singles</t>
+          <t>WCBA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Anastasia Gasanova vs Lamis Alhussein Abdel Aziz</t>
+          <t>Hebei - Beijing Shougang</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6751099</v>
+        <v>6783073</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -1836,47 +1836,47 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2024-12-11 15:30</t>
+          <t>2024-12-16 19:30</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0天 1小时 30分钟 15秒</t>
+          <t>0天 1小时 38分钟 32秒</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Itf Egypt 24a, Women Singles</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Daria Zelinskaya vs Cagla Buyukakcay</t>
+          <t>Beijing Ducks - Tianjin Pioneers</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6751100</v>
+        <v>6784412</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -1886,47 +1886,47 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2024-12-11 15:30</t>
+          <t>2024-12-16 19:35</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0天 1小时 30分钟 15秒</t>
+          <t>0天 1小时 33分钟 33秒</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Itf Egypt 24a, Women Singles</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tatiana Prozorova vs Kateryna Volodko</t>
+          <t>Guangzhou Loong Lions - Shanghai Sharks</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6751438</v>
+        <v>6784416</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -1936,47 +1936,47 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2024-12-11 15:30</t>
+          <t>2024-12-16 19:35</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0天 1小时 30分钟 16秒</t>
+          <t>0天 1小时 33分钟 34秒</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ITF South Africa 10A, Women Singles</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>van Zyl, Jahnie v Borkop, Sara</t>
+          <t>Jiangsu Dragons - Guangdong Southern Tigers</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6749442</v>
+        <v>6784429</v>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -1986,97 +1986,97 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 19:35</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 16秒</t>
+          <t>0天 1小时 33分钟 34秒</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ITF South Africa 10A, Women Singles</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tona, Miriana v Kotecha, Anjali</t>
+          <t>Shanxi Loongs - Liaoning Flying Leopards</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6749448</v>
+        <v>6784435</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 19:35</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 17秒</t>
+          <t>0天 1小时 33分钟 35秒</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ITF South Africa 10A, Women Singles</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Vaissaud, Dune v Sandberg, Vivien</t>
+          <t>Qingdao Eagles - Nanjing Tongxi Monkey Kings</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6749451</v>
+        <v>6784448</v>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2086,47 +2086,47 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 19:35</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 17秒</t>
+          <t>0天 1小时 33分钟 36秒</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ITF South Africa 10A, Women Singles</t>
+          <t>Georgia Championship U22</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Marmorstein, Jessica v Meyer Auf Der Heide, Luisa</t>
+          <t>Dinamo Tbilisi U22 - Kutaisi U22</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6749452</v>
+        <v>6784049</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -2136,91 +2136,91 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 18秒</t>
+          <t>0天 1小时 8分钟 37秒</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Volleyball</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ITF India 10A, Women Singles</t>
+          <t>World Amateur League</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Laalitya Kalluri vs Sejal Gopal Bhutada</t>
+          <t>German Beerman - Polish Bison</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6748783</v>
+        <v>6790092</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2024-12-11 15:00</t>
+          <t>2024-12-16 20:10</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0天 2小时 0分钟 18秒</t>
+          <t>0天 0小时 58分钟 38秒</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Volleyball</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ITF Brazil 15A, Women Singles</t>
+          <t>Orange Cup</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ccuno , Romina v Rodero Contreras, Camila</t>
+          <t>Sparta (4x4) - Volna (4H4)</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6747297</v>
+        <v>6790042</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2024-12-11 00:00</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0天 17小时 0分钟 19秒</t>
+          <t>0天 1小时 8分钟 38秒</t>
         </is>
       </c>
     </row>
@@ -2256,21 +2256,21 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>Exhibition</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ITF Brazil 15A, Women Singles</t>
+          <t>Czech Republic Extraliga Women</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sousa Salazar, Natalia v Rain Contreras, Fernanda</t>
+          <t>Wang, Xiyu - Bejlek, Sara</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6747313</v>
+        <v>6789878</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2024-12-11 00:00</t>
+          <t>2024-12-16 19:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0天 17小时 0分钟 20秒</t>
+          <t>0天 2小时 8分钟 39秒</t>
         </is>
       </c>
     </row>
@@ -2306,27 +2306,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>Exhibition</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Itf Turkey 32a, Women Singles</t>
+          <t>Czech Republic Extraliga</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Linda Sevcikova vs Jenny Lim</t>
+          <t>Kovalik, Jozef - Gombos, Norbert</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6749277</v>
+        <v>6790110</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -2336,12 +2336,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2024-12-11 15:00</t>
+          <t>2024-12-16 19:58</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0天 2小时 0分钟 20秒</t>
+          <t>0天 1小时 10分钟 40秒</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>Exhibition</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Itf Turkey 32a, Women Singles</t>
+          <t>Czech Republic Extraliga</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Stefania Bojica vs Lidia Encheva</t>
+          <t>Majchrzak, Kamil - Klein, Lukas</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6749281</v>
+        <v>6790117</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2024-12-11 15:00</t>
+          <t>2024-12-16 20:10</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0天 2小时 0分钟 21秒</t>
+          <t>0天 0小时 58分钟 41秒</t>
         </is>
       </c>
     </row>
@@ -2406,27 +2406,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>Exhibition</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Itf Turkey 32a, Women Singles</t>
+          <t>Czech Republic Extraliga</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Natalija Senic vs Vicky Van De Peer</t>
+          <t>Kodat, Toby Alex - Nicod, Jakub</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6749284</v>
+        <v>6790131</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -2436,12 +2436,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2024-12-11 15:00</t>
+          <t>2024-12-16 20:30</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0天 2小时 0分钟 21秒</t>
+          <t>0天 0小时 38分钟 41秒</t>
         </is>
       </c>
     </row>
@@ -2456,27 +2456,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>Exhibition</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Itf Turkey 32a, Women Singles</t>
+          <t>Czech Republic Extraliga</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Yasmine Kabbaj vs Gaia Squarcialupi</t>
+          <t>Rodionov, Jurij - Vesely, Jiri</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6751237</v>
+        <v>6790179</v>
       </c>
       <c r="G41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 21:00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 22秒</t>
+          <t>0天 0小时 8分钟 42秒</t>
         </is>
       </c>
     </row>
@@ -2506,27 +2506,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ITF Women</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Itf Turkey 32a, Women Singles</t>
+          <t>ITF Qatar F4, Men Singles</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Aya El Aouni vs Lucie Urbanova</t>
+          <t>Summers, Matthew - Jorgensen, Sebastian Grundtvig</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6751238</v>
+        <v>6786884</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -2536,47 +2536,47 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2024-12-11 14:30</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0天 2小时 30分钟 22秒</t>
+          <t>0天 1小时 8分钟 43秒</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Table Tennis</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Setka Cup</t>
+          <t>ITF Qatar F4, Men Singles</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Andrey Pereyaslov vs Bogdan Panchenko</t>
+          <t>Cuenin, Sean - Relic, Maximillian</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6753834</v>
+        <v>6786895</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -2586,47 +2586,47 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2024-12-11 16:30</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0天 0小时 30分钟 23秒</t>
+          <t>0天 1小时 8分钟 44秒</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Table Tennis</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Setka Cup</t>
+          <t>ITF Qatar F4, Men Singles</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Vasyl Verbianyi vs Vitalii Levshyn</t>
+          <t>Forger, Abel - Alkotop, Mohammad</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6753838</v>
+        <v>6786943</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -2636,297 +2636,297 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2024-12-11 16:35</t>
+          <t>2024-12-16 20:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0天 0小时 25分钟 23秒</t>
+          <t>0天 1小时 8分钟 45秒</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Table Tennis</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Setka Cup</t>
+          <t>ITF Indonesia F6, Men Singles</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Lukas Adam vs Josef Chalupa</t>
+          <t>Kukasian, Artur - Chen, Xing Dao</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6753839</v>
+        <v>6781225</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2024-12-11 16:45</t>
+          <t>2024-12-16 10:30</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0天 0小时 15分钟 24秒</t>
+          <t>0天 10小时 38分钟 45秒</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Table Tennis</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Setka Cup</t>
+          <t>ITF Indonesia F6, Men Singles</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Maksym Mrykh vs Oleksandr Seluchenko</t>
+          <t>Tamm, Kristjan - Dong, Chen</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6753840</v>
+        <v>6781229</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2024-12-11 16:50</t>
+          <t>2024-12-16 10:30</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0天 0小时 10分钟 25秒</t>
+          <t>0天 10小时 38分钟 46秒</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Table Tennis</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Setka Cup</t>
+          <t>ITF Indonesia F6, Men Singles</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Volodymyr Plishylo vs Ivan Kozachuk</t>
+          <t>Sornlaksup, Pawit - Tomida, Yuta</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6753841</v>
+        <v>6781226</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2024-12-11 16:55</t>
+          <t>2024-12-16 10:30</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0天 0小时 5分钟 25秒</t>
+          <t>0天 10小时 38分钟 47秒</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Table Tennis</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Liga Pro</t>
+          <t>ITF Turkey F35, Men Singles</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Alexey Shershnev vs Dmitry Korneev</t>
+          <t>Campana, Federico - Rios Perez, Eneko</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6711841</v>
+        <v>6785744</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2024-12-07 07:50</t>
+          <t>2024-12-16 19:30</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>4天 9小时 10分钟 26秒</t>
+          <t>0天 1小时 38分钟 48秒</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Table Tennis</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Liga Pro</t>
+          <t>ITF Turkey F35, Men Singles</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sergey Simonov vs Alexander Klavdenkov</t>
+          <t>Shirokyi, Dmytro - Uta, Daniel</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6754508</v>
+        <v>6785745</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2024-12-11 16:25</t>
+          <t>2024-12-16 18:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0天 0小时 35分钟 26秒</t>
+          <t>0天 3小时 8分钟 49秒</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>eSoccer</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Esports Battle</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Esports Battle - Asian Champions League - 8 mins play</t>
+          <t>ITF Turkey F35, Men Singles</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Al-Hilal (labotryas) Esports vs Gangwon FC (DaVa) Esports</t>
+          <t>Vermeer, Wout - Valle, Federico</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6754202</v>
+        <v>6785746</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -2936,97 +2936,97 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2024-12-11 16:54</t>
+          <t>2024-12-16 18:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0天 0小时 6分钟 27秒</t>
+          <t>0天 3小时 8分钟 49秒</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>eSoccer</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Esports Battle</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Esports Battle - Asian Champions League - 8 mins play</t>
+          <t>ITF Turkey F35, Men Singles</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Al-Nassr (Flewless_phoenix) Esports vs Pohang Steelers (FEARGGWP) Esports</t>
+          <t>Gasimov, Kanan - Misasi, Giannicola</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6754203</v>
+        <v>6785747</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2024-12-11 16:54</t>
+          <t>2024-12-16 19:30</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0天 0小时 6分钟 27秒</t>
+          <t>0天 1小时 38分钟 50秒</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Syed Mushtaq Ali Trophy</t>
+          <t>ITF Turkey F35, Men Singles</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mumbai vs. Vidarbha</t>
+          <t>Baldisserri, Enrico - Graski, Janis</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6708590</v>
+        <v>6785755</v>
       </c>
       <c r="G52" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -3036,47 +3036,47 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 18:00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 28秒</t>
+          <t>0天 3小时 8分钟 51秒</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>T20 Africa Continent Cup</t>
+          <t>ITF Turkey F35, Men Singles</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Rwanda v Botswana, Africa T20 Continent Cup Match 13, from Gahanga International Cricket Stadium. Rwanda</t>
+          <t>Paolini, Andrea - Malakhovich, Mikhail</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6745438</v>
+        <v>6786012</v>
       </c>
       <c r="G53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -3086,22 +3086,22 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2024-12-11 15:15</t>
+          <t>2024-12-16 19:30</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0天 1小时 45分钟 28秒</t>
+          <t>0天 1小时 38分钟 52秒</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3111,22 +3111,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ODI Series Australia vs India, Women</t>
+          <t>Liga Pro</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Australia Women v India Women, India Women tour of Australia ODIs Match 3, from W.A.C.A. Ground</t>
+          <t>Jan, Steffan - Barta Tomas</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6705369</v>
+        <v>6786463</v>
       </c>
       <c r="G54" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H54" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -3136,47 +3136,47 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2024-12-11 12:20</t>
+          <t>2024-12-16 21:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0天 4小时 40分钟 29秒</t>
+          <t>0天 0小时 8分钟 52秒</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nepal Premier League</t>
+          <t>Liga Pro</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kathmandu Gurkhas v Lumbini Lions, Nepal Premier League Match 19, from Kirtipur</t>
+          <t>Jaroslav Kepka vs Petr Machovec</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6745439</v>
+        <v>6786466</v>
       </c>
       <c r="G55" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -3186,47 +3186,47 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2024-12-11 15:15</t>
+          <t>2024-12-16 21:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0天 1小时 45分钟 30秒</t>
+          <t>0天 0小时 8分钟 53秒</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bahria Town Champions T20</t>
+          <t>Liga Pro</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Nurpur Lions v Lake City Panthers, Bahria Town Champions T20 Match 6, from Rawalpindi Cricket Stadium</t>
+          <t>Milan Cetner - Didi, Julius</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6753277</v>
+        <v>6786480</v>
       </c>
       <c r="G56" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H56" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -3236,47 +3236,47 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2024-12-11 15:00</t>
+          <t>2024-12-16 21:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0天 2小时 0分钟 30秒</t>
+          <t>0天 0小时 8分钟 54秒</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Simulated Reality League</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Big Bash League SRL</t>
+          <t>Liga Pro</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Hobart Hurricanes Srl vs. Brisbane Heat Srl</t>
+          <t>Milan Chalupnicek - Milan Vrabec</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6749361</v>
+        <v>6786481</v>
       </c>
       <c r="G57" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -3286,62 +3286,1262 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2024-12-11 16:00</t>
+          <t>2024-12-16 21:00</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0天 1小时 0分钟 31秒</t>
+          <t>0天 0小时 8分钟 55秒</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Table Tennis</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Liga Pro</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Andrei Kopchinskii vs Aleksandr Osadchii</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>6786648</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2024-12-16 20:50</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0天 0小时 18分钟 56秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Table Tennis</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Liga Pro</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Vladimir Makarkin vs Victor Rakhmanovsky</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>6786649</v>
+      </c>
+      <c r="G59" t="n">
+        <v>10</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2024-12-16 20:50</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0天 0小时 18分钟 56秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Table Tennis</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Setka Cup</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Ihor Emets vs Stefan Yakimenko</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>6788550</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2024-12-16 20:50</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0天 0小时 18分钟 57秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Table Tennis</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Setka Cup</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Ivan Kryvyi vs Oleh Martynenko</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>6788551</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2024-12-16 20:55</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0天 0小时 13分钟 58秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Table Tennis</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Setka Cup</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Badai Maxim vs Ivan Fedorishin</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>6788552</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2024-12-16 21:00</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0天 0小时 8分钟 59秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Table Tennis</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Setka Cup Women</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Maria Vasileva vs Yana Mykhailyk</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>6788553</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2024-12-16 21:05</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0天 0小时 4分钟 0秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Table Tennis</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>TT Elite Series</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Maksymilian Miastowski vs Maciej Nowalinski</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>6788807</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2024-12-16 20:50</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0天 0小时 19分钟 0秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Table Tennis</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>TT Elite Series</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Damian Wederlich vs Marcin Jadczyk</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>6788813</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2024-12-16 21:00</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0天 0小时 9分钟 1秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>51</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>eSoccer</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Gt Sports League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GT League</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain (Arthur) Esports vs FC Inter Milano (Diego) Esports</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>6789081</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2024-12-16 21:00</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0天 0小时 9分钟 2秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>51</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>eSoccer</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Gt Sports League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GT League</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>FC Bayern Munich (Klaus) Esports vs Manchester City FC (Carlos) Esports</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>6789082</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2024-12-16 21:00</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0天 0小时 9分钟 3秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>20</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Big Cricket League T20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Northern Challengers v MP Tigers, Big Cricket League T20 Match 8, from Lalbhai Contractor Stadium</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>6779461</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2024-12-16 17:30</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0天 3小时 39分钟 3秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Test Matches</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Australia - India</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>6705389</v>
+      </c>
+      <c r="G69" t="n">
+        <v>17</v>
+      </c>
+      <c r="H69" t="n">
+        <v>17</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2024-12-14 08:20</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2天 12小时 49分钟 4秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Test Matches</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>New Zealand - England</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>6705390</v>
+      </c>
+      <c r="G70" t="n">
+        <v>14</v>
+      </c>
+      <c r="H70" t="n">
+        <v>14</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2024-12-14 06:00</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2天 15小时 9分钟 5秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>20</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Women's Test Matches</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>South Africa Women v England Women,  Only Match Test Match, from Mangaung Oval</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>6749354</v>
+      </c>
+      <c r="G71" t="n">
+        <v>18</v>
+      </c>
+      <c r="H71" t="n">
+        <v>18</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2024-12-15 16:00</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1天 5小时 9分钟 7秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Simulated Reality League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Big Bash League SRL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Sydney Sixers SRL - Perth Scorchers SRL</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>6753377</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:00</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>4天 5小时 9分钟 8秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Simulated Reality League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SA T20 League SRL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Durban Super Giants Srl - Joburg Super Kings Srl</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>6780176</v>
+      </c>
+      <c r="G73" t="n">
+        <v>15</v>
+      </c>
+      <c r="H73" t="n">
+        <v>15</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2024-12-16 20:00</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0天 1小时 9分钟 8秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
         <v>5</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Handball</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Algeria</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Algeria Cup, Women</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Nrkg Alger v MC Alger</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>6711937</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" t="n">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>National 1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ES Constantine - Ir Boutelja</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>6764259</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
         <v>1</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2024-12-06 22:00</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>4天 19小时 0分钟 31秒</t>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:00</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2天 23小时 9分钟 9秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Handball</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2A Divisao</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>AD Carvalhos - AC Sismaria</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>6772190</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2024-12-15 03:45</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1天 17小时 24分钟 10秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Snooker</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>German Masters</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Carty, Ashley - Ajaib, Farakh</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>6781407</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2024-12-16 18:00</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0天 3小时 9分钟 11秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>27</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Snooker</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>German Masters</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Lines, Oliver - Doherty, Ken</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>6781409</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2024-12-16 18:00</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0天 3小时 9分钟 12秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>27</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Snooker</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>German Masters</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Chenzhi, Gong - Wongharuthai, Nutcharut</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>6781408</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2024-12-16 18:00</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0天 3小时 9分钟 12秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>27</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Snooker</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>German Masters</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Revesz, Bulcsu - Nuanthakhamjan, Siripaporn</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>6781424</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2024-12-16 17:00</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0天 4小时 9分钟 13秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>18</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Darts</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>PDC World Championship</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Plaisier, Wesley - Azemoto, Ryusei</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>6747759</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2024-12-16 20:45</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0天 0小时 24分钟 14秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>18</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Darts</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ADC Global Championship</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Mould, Adam - Welding, James</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>6789631</v>
+      </c>
+      <c r="G81" t="n">
+        <v>8</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2024-12-16 21:05</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0天 0小时 4分钟 15秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>21</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Futsal</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Campeonato Carioca de Futsal Sub-20</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Olaria AC - Mage Futsal U20</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>6761679</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2024-12-13 08:00</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>3天 13小时 9分钟 16秒</t>
         </is>
       </c>
     </row>

--- a/excel/已失效比赛.xlsx
+++ b/excel/已失效比赛.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,46 +511,46 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2nd Division</t>
+          <t>Nifl Development League</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sporting Alexandria - Al-Sekka Al-Hadid</t>
+          <t>Larne Olympic - Loughgall FC Reserves</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6770673</v>
+        <v>6823521</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-12-15 20:30</t>
+          <t>2024-12-24 03:45</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1天 0小时 44分钟 26秒</t>
+          <t>15天 12小时 23分钟 54秒</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>24.74055555555556</v>
+        <v>372.3983333333333</v>
       </c>
     </row>
     <row r="3">
@@ -564,152 +564,152 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Super League 2</t>
+          <t>Nifl Development League</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Asteras Tripolis B - GS Ilioupoli</t>
+          <t>Carrick Rangers Reserves - Cliftonville Olympic</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6749592</v>
+        <v>6823540</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-12-15 21:00</t>
+          <t>2024-12-24 03:45</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1天 0小时 14分钟 36秒</t>
+          <t>15天 12小时 23分钟 55秒</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>24.24333333333334</v>
+        <v>372.3986111111111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soccer</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Super League 2</t>
+          <t>Super Division</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki B - Kampaniakos</t>
+          <t>TRA Draria - NB Staoueli</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6749618</v>
+        <v>6805735</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-12-15 21:00</t>
+          <t>2024-12-21 00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1天 0小时 14分钟 37秒</t>
+          <t>18天 16小时 8分钟 56秒</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>24.24361111111111</v>
+        <v>448.1488888888889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soccer</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>ATP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Azadegan League</t>
+          <t>ATP Auckland, New Zealand Men Singles</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Damash Gilan - Sanat Mes Kerman FC</t>
+          <t>Navone, Mariano - Borges, Nuno</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6218770</v>
+        <v>6909573</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-12-13 19:00</t>
+          <t>2025-01-08 12:25</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3天 2小时 14分钟 40秒</t>
+          <t>0天 3小时 44分钟 3秒</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>74.24444444444444</v>
+        <v>3.734166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -723,21 +723,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>ITF Women</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ITF Indonesia F6, Men Singles</t>
+          <t>ITF Turkey 34a, Women Singles</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kukasian, Artur - Chen, Xing Dao</t>
+          <t>Hodzic, Mina - Sakellaridi, Sapfo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6781225</v>
+        <v>6850195</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -753,16 +753,16 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-12-16 10:30</t>
+          <t>2024-12-29 15:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0天 10小时 45分钟 8秒</t>
+          <t>10天 1小时 9分钟 13秒</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>10.75222222222222</v>
+        <v>241.1536111111111</v>
       </c>
     </row>
     <row r="7">
@@ -776,21 +776,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>WTA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ITF Indonesia F6, Men Singles</t>
+          <t>WTA Hobart, Australia Women Double</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tamm, Kristjan - Dong, Chen</t>
+          <t>Mihalikova T / Nicholls O - Blinkova A / Sherif M</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6781229</v>
+        <v>6909763</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -806,44 +806,44 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-12-16 10:30</t>
+          <t>2025-01-08 11:30</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0天 10小时 45分钟 9秒</t>
+          <t>0天 4小时 39分钟 16秒</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10.7525</v>
+        <v>4.654444444444445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ITF Indonesia F6, Men Singles</t>
+          <t>Liga Pro</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sornlaksup, Pawit - Tomida, Yuta</t>
+          <t>Igor Abelmasov vs Dmitry Tikhenko</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6781226</v>
+        <v>6840672</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -859,131 +859,131 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-12-16 10:30</t>
+          <t>2024-12-28 23:20</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0天 10小时 45分钟 10秒</t>
+          <t>10天 16小时 49分钟 23秒</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10.75277777777778</v>
+        <v>256.8230555555555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ITF Turkey F35, Men Singles</t>
+          <t>Setka Cup</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vermeer, Wout - Valle, Federico</t>
+          <t>Oleksandr Bielskyi vs Maksym Mrykh</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6785746</v>
+        <v>6798769</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-12-16 18:00</t>
+          <t>2024-12-18 17:20</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0天 3小时 15分钟 12秒</t>
+          <t>20天 22小时 49分钟 29秒</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3.253333333333333</v>
+        <v>502.8247222222222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ITF Turkey F35, Men Singles</t>
+          <t>Setka Cup</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Baldisserri, Enrico - Graski, Janis</t>
+          <t>Vladyslav Kovalchuk vs Oles Kotsyumbas</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6785755</v>
+        <v>6847899</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-12-16 18:00</t>
+          <t>2024-12-28 22:55</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0天 3小时 15分钟 14秒</t>
+          <t>10天 17小时 14分钟 30秒</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3.253888888888889</v>
+        <v>257.2416666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -993,94 +993,94 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Test Matches</t>
+          <t>TT Elite Series</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Australia - India</t>
+          <t>Grzegorz Adamiak vs Adrian Spychala</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6705389</v>
+        <v>6825023</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-12-14 08:20</t>
+          <t>2024-12-24 14:05</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2天 12小时 55分钟 32秒</t>
+          <t>15天 2小时 4分钟 33秒</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60.92555555555555</v>
+        <v>362.0758333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Ice Hockey</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Test Matches</t>
+          <t>Elite League</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>New Zealand - England</t>
+          <t>Glasgow Clan - Guildford Flames</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6705390</v>
+        <v>6778938</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2024-12-14 06:00</t>
+          <t>2024-12-16 01:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2天 15小时 15分钟 33秒</t>
+          <t>23天 15小时 9分钟 33秒</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>63.25916666666667</v>
+        <v>567.1591666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Women's Test Matches</t>
+          <t>ODI Series New Zealand vs Sri Lanka</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>South Africa Women v England Women,  Only Match Test Match, from Mangaung Oval</t>
+          <t>New Zealand v Sri Lanka, Sri Lanka Tour of New Zealand ODI Match 2, from Seddon Park</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6749354</v>
+        <v>6895410</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -1124,44 +1124,44 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2024-12-15 16:00</t>
+          <t>2025-01-08 11:30</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1天 5小时 15分钟 34秒</t>
+          <t>0天 4小时 39分钟 35秒</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>29.25944444444444</v>
+        <v>4.659722222222222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Handball</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>National 1</t>
+          <t>Logan Cup</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ES Constantine - Ir Boutelja</t>
+          <t>Mashonaland Eagles v Mountaineers, Logan Cup Match 9, from Harare Sports Club</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6764259</v>
+        <v>6903151</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-12-13 22:00</t>
+          <t>2025-01-06 16:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2天 23小时 15分钟 36秒</t>
+          <t>2天 0小时 9分钟 37秒</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>71.26000000000001</v>
+        <v>48.16027777777778</v>
       </c>
     </row>
     <row r="15">
@@ -1200,21 +1200,21 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2A Divisao</t>
+          <t>National 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AD Carvalhos - AC Sismaria</t>
+          <t>ES Constantine - Ir Boutelja</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6772190</v>
+        <v>6764259</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1230,69 +1230,69 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2024-12-15 03:45</t>
+          <t>2024-12-13 22:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1天 17小时 30分钟 37秒</t>
+          <t>25天 18小时 9分钟 38秒</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>41.51027777777778</v>
+        <v>618.1605555555556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snooker</t>
+          <t>Handball</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>German Masters</t>
+          <t>2A Divisao</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Carty, Ashley - Ajaib, Farakh</t>
+          <t>AD Carvalhos - AC Sismaria</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6781407</v>
+        <v>6772190</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2024-12-16 18:00</t>
+          <t>2024-12-15 03:45</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0天 3小时 15分钟 38秒</t>
+          <t>24天 12小时 24分钟 38秒</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>3.260555555555555</v>
+        <v>588.4105555555556</v>
       </c>
     </row>
     <row r="17">
@@ -1311,200 +1311,94 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>German Masters</t>
+          <t>Championship League</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lines, Oliver - Doherty, Ken</t>
+          <t>Milkins, Robert - Day, Ryan</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6781409</v>
+        <v>6899527</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2024-12-16 18:00</t>
+          <t>2025-01-07 03:30</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0天 3小时 15分钟 39秒</t>
+          <t>1天 12小时 39分钟 40秒</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>3.260833333333333</v>
+        <v>36.66111111111111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Snooker</t>
+          <t>Futsal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>German Masters</t>
+          <t>Campeonato Carioca de Futsal Sub-20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chenzhi, Gong - Wongharuthai, Nutcharut</t>
+          <t>Olaria AC - Mage Futsal U20</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6781408</v>
+        <v>6761679</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2024-12-16 18:00</t>
+          <t>2024-12-13 08:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0天 3小时 15分钟 41秒</t>
+          <t>26天 8小时 9分钟 40秒</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3.261388888888889</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Snooker</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>German Masters</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Revesz, Bulcsu - Nuanthakhamjan, Siripaporn</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6781424</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2024-12-16 17:00</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0天 4小时 15分钟 42秒</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>4.261666666666667</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>21</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Futsal</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Campeonato Carioca de Futsal Sub-20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Olaria AC - Mage Futsal U20</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6761679</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2024-12-13 08:00</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>3天 13小时 15分钟 45秒</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>85.2625</v>
+        <v>632.161111111111</v>
       </c>
     </row>
   </sheetData>

--- a/excel/已失效比赛.xlsx
+++ b/excel/已失效比赛.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,30 +502,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soccer</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nifl Development League</t>
+          <t>ITF M15 Monastir | Men | Singles</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Larne Olympic - Loughgall FC Reserves</t>
+          <t>Fantini, Luca - Efstathiou, Menelaos</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6823521</v>
+        <v>6954496</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -541,44 +541,44 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-12-24 03:45</t>
+          <t>2025-01-15 18:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15天 12小时 23分钟 54秒</t>
+          <t>5天 15小时 52分钟 52秒</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>372.3983333333333</v>
+        <v>135.8811111111111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soccer</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nifl Development League</t>
+          <t>ITF M15 Monastir | Men | Singles</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Carrick Rangers Reserves - Cliftonville Olympic</t>
+          <t xml:space="preserve">Basic, Nikola - Thurner, Noah </t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6823540</v>
+        <v>6954498</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -594,44 +594,44 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-12-24 03:45</t>
+          <t>2025-01-15 18:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>15天 12小时 23分钟 55秒</t>
+          <t>5天 15小时 52分钟 53秒</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>372.3986111111111</v>
+        <v>135.8813888888889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Super Division</t>
+          <t>ITF M15 Monastir | Men | Singles</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRA Draria - NB Staoueli</t>
+          <t>Marino, Pietro - Pampanin, Pietro</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6805735</v>
+        <v>6954501</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -647,16 +647,16 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-12-21 00:00</t>
+          <t>2025-01-15 18:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18天 16小时 8分钟 56秒</t>
+          <t>5天 15小时 52分钟 54秒</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>448.1488888888889</v>
+        <v>135.8816666666667</v>
       </c>
     </row>
     <row r="5">
@@ -670,46 +670,46 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ATP</t>
+          <t>ITF Men</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ATP Auckland, New Zealand Men Singles</t>
+          <t>ITF M15 Monastir | Men | Singles</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Navone, Mariano - Borges, Nuno</t>
+          <t>Ivanov, Saveliy - Waldner, Niklas</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6909573</v>
+        <v>6954545</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-01-08 12:25</t>
+          <t>2025-01-15 18:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0天 3小时 44分钟 3秒</t>
+          <t>5天 15小时 52分钟 55秒</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3.734166666666667</v>
+        <v>135.8819444444445</v>
       </c>
     </row>
     <row r="6">
@@ -728,16 +728,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ITF Turkey 34a, Women Singles</t>
+          <t>ITF Esch/Alzette | Women | Singles</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hodzic, Mina - Sakellaridi, Sapfo</t>
+          <t>Tran, Demi - Kotliar, Yelyzaveta</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6850195</v>
+        <v>6996758</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -753,44 +753,44 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-12-29 15:00</t>
+          <t>2025-01-21 01:15</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10天 1小时 9分钟 13秒</t>
+          <t>0天 8小时 37分钟 56秒</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>241.1536111111111</v>
+        <v>8.632222222222223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Snooker</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WTA</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WTA Hobart, Australia Women Double</t>
+          <t>Championship League</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mihalikova T / Nicholls O - Blinkova A / Sherif M</t>
+          <t>Milkins, Robert - Day, Ryan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6909763</v>
+        <v>6899527</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -806,599 +806,16 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-01-08 11:30</t>
+          <t>2025-01-07 03:30</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0天 4小时 39分钟 16秒</t>
+          <t>14天 6小时 23分钟 12秒</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4.654444444444445</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Table Tennis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Liga Pro</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Igor Abelmasov vs Dmitry Tikhenko</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6840672</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-12-28 23:20</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>10天 16小时 49分钟 23秒</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>256.8230555555555</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table Tennis</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Setka Cup</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Oleksandr Bielskyi vs Maksym Mrykh</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6798769</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-12-18 17:20</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>20天 22小时 49分钟 29秒</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>502.8247222222222</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Table Tennis</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Setka Cup</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Vladyslav Kovalchuk vs Oles Kotsyumbas</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6847899</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2024-12-28 22:55</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>10天 17小时 14分钟 30秒</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>257.2416666666667</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Table Tennis</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TT Elite Series</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Grzegorz Adamiak vs Adrian Spychala</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6825023</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2024-12-24 14:05</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>15天 2小时 4分钟 33秒</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>362.0758333333333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ice Hockey</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Elite League</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Glasgow Clan - Guildford Flames</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6778938</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2024-12-16 01:00</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>23天 15小时 9分钟 33秒</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>567.1591666666667</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>20</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Cricket</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ODI Series New Zealand vs Sri Lanka</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>New Zealand v Sri Lanka, Sri Lanka Tour of New Zealand ODI Match 2, from Seddon Park</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6895410</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2025-01-08 11:30</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0天 4小时 39分钟 35秒</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>4.659722222222222</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Cricket</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Logan Cup</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Mashonaland Eagles v Mountaineers, Logan Cup Match 9, from Harare Sports Club</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6903151</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2025-01-06 16:00</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2天 0小时 9分钟 37秒</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>48.16027777777778</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Handball</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>National 1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ES Constantine - Ir Boutelja</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6764259</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024-12-13 22:00</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>25天 18小时 9分钟 38秒</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>618.1605555555556</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Handball</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2A Divisao</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>AD Carvalhos - AC Sismaria</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6772190</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024-12-15 03:45</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>24天 12小时 24分钟 38秒</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>588.4105555555556</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>27</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Snooker</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Championship League</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Milkins, Robert - Day, Ryan</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6899527</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-01-07 03:30</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1天 12小时 39分钟 40秒</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>36.66111111111111</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>21</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Futsal</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Campeonato Carioca de Futsal Sub-20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Olaria AC - Mage Futsal U20</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6761679</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2024-12-13 08:00</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>26天 8小时 9分钟 40秒</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>632.161111111111</v>
+        <v>342.3866666666667</v>
       </c>
     </row>
   </sheetData>

--- a/excel/已失效比赛.xlsx
+++ b/excel/已失效比赛.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,320 +502,55 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ITF Men</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITF M15 Monastir | Men | Singles</t>
+          <t>Test Match</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fantini, Luca - Efstathiou, Menelaos</t>
+          <t>Pakistan v West Indies, 2nd Test Match, from Multan Cricket Stadium</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6954496</v>
+        <v>6989809</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-01-15 18:00</t>
+          <t>2025-01-25 12:30</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5天 15小时 52分钟 52秒</t>
+          <t>1天 4小时 47分钟 25秒</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>135.8811111111111</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tennis</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ITF Men</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ITF M15 Monastir | Men | Singles</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Basic, Nikola - Thurner, Noah </t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6954498</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-01-15 18:00</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>5天 15小时 52分钟 53秒</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>135.8813888888889</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tennis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ITF Men</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ITF M15 Monastir | Men | Singles</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Marino, Pietro - Pampanin, Pietro</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6954501</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-01-15 18:00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>5天 15小时 52分钟 54秒</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>135.8816666666667</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tennis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ITF Men</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ITF M15 Monastir | Men | Singles</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ivanov, Saveliy - Waldner, Niklas</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6954545</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-01-15 18:00</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>5天 15小时 52分钟 55秒</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>135.8819444444445</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tennis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ITF Women</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ITF Esch/Alzette | Women | Singles</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tran, Demi - Kotliar, Yelyzaveta</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6996758</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-01-21 01:15</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0天 8小时 37分钟 56秒</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>8.632222222222223</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>27</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Snooker</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Championship League</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Milkins, Robert - Day, Ryan</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6899527</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-01-07 03:30</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>14天 6小时 23分钟 12秒</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>342.3866666666667</v>
+        <v>28.79027777777778</v>
       </c>
     </row>
   </sheetData>

--- a/excel/已失效比赛.xlsx
+++ b/excel/已失效比赛.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,55 +502,426 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Test Match</t>
+          <t>National</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pakistan v West Indies, 2nd Test Match, from Multan Cricket Stadium</t>
+          <t>Quevilly-Rouen Metropole vs. US Boulogne</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6989809</v>
+        <v>7053101</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-01-25 12:30</t>
+          <t>2025-02-02 01:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1天 4小时 47分钟 25秒</t>
+          <t>6天 0小时 14分钟 8秒</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>28.79027777777778</v>
+        <v>144.2355555555555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>National 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>US Saint-Malo v St Pryve St Hilaire FC</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7062784</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-02-02 01:00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>6天 0小时 14分钟 9秒</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>144.2358333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Eska-Eskana A1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Asteras Agiou Dimitriou - AON Argiroupolis</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7084479</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-02-04 02:30</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3天 22小时 44分钟 30秒</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>94.74166666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Volleyball</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Qatar Volleyball League</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Police v AL Shamal</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7080823</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-02-03 00:00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>5天 1小时 14分钟 51秒</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>121.2475</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tennis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WTA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>WTA Doha, Qatar Women Singles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Zarazua, Renata - Semenistaja, Darja</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>7110404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-02-07 21:25</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0天 3小时 50分钟 4秒</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3.834444444444445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Test Matches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sri Lanka v Australia, 2nd Test Match, from Galle International Stadium</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>7051910</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-02-06 12:30</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1天 12小时 45分钟 25秒</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>36.75694444444444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Test Matches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Zimbabwe v Ireland,  Only Match Test Match, from Queens Sports Club</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>7082447</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-02-06 16:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1天 9小时 15分钟 26秒</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>33.25722222222223</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Handball</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>National League, Women</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HC Holon - Bnei Hertzeliya W</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>7108455</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-02-07 02:30</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0天 22小时 45分钟 30秒</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>22.75833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/excel/已失效比赛.xlsx
+++ b/excel/已失效比赛.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,21 +511,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>Israel Liga Bet</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Quevilly-Rouen Metropole vs. US Boulogne</t>
+          <t>Maccabi Bnei Jadida v Ahaly Tamra</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7053101</v>
+        <v>7223612</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -541,44 +541,44 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-02-02 01:00</t>
+          <t>2025-02-21 18:15</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>6天 0小时 14分钟 8秒</t>
+          <t>2天 13小时 24分钟 51秒</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>144.2355555555555</v>
+        <v>61.41416666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soccer</t>
+          <t>Volleyball</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>National 2</t>
+          <t>Super League, Women</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>US Saint-Malo v St Pryve St Hilaire FC</t>
+          <t>CODER W - MA Tetouan</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7062784</v>
+        <v>7233590</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -594,44 +594,44 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-02-02 01:00</t>
+          <t>2025-02-22 21:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6天 0小时 14分钟 9秒</t>
+          <t>1天 10小时 40分钟 10秒</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>144.2358333333333</v>
+        <v>34.66944444444444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Volleyball</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eska-Eskana A1</t>
+          <t>Primera Division, Women</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Asteras Agiou Dimitriou - AON Argiroupolis</t>
+          <t>Brumas de Jinotega - Unan Managua</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7084479</v>
+        <v>7247518</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -647,44 +647,44 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-02-04 02:30</t>
+          <t>2025-02-24 04:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3天 22小时 44分钟 30秒</t>
+          <t>0天 3小时 40分钟 11秒</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>94.74166666666667</v>
+        <v>3.669722222222222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Volleyball</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>ITF Women</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Qatar Volleyball League</t>
+          <t>ITF India 09A, Women Singles</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Police v AL Shamal</t>
+          <t>Narayan Sonkusare, Aakruti Sonkusare - Pathania, Vanshita</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7080823</v>
+        <v>7240330</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-02-03 00:00</t>
+          <t>2025-02-23 18:15</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5天 1小时 14分钟 51秒</t>
+          <t>0天 13小时 25分钟 14秒</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>121.2475</v>
+        <v>13.42055555555556</v>
       </c>
     </row>
     <row r="6">
@@ -728,50 +728,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WTA Doha, Qatar Women Singles</t>
+          <t>WTA Austin, USA Women Singles</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Zarazua, Renata - Semenistaja, Darja</t>
+          <t>Marino, Rebecca - Prozorova, Tatiana</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7110404</v>
+        <v>7249032</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-02-07 21:25</t>
+          <t>2025-02-24 08:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0天 3小时 50分钟 4秒</t>
+          <t>-1天 23小时 40分钟 16秒</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3.834444444444445</v>
+        <v>-0.328888888888889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Table Tennis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -781,75 +781,75 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Test Matches</t>
+          <t>Setka Cup</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sri Lanka v Australia, 2nd Test Match, from Galle International Stadium</t>
+          <t>Yan Krol vs Maksym Marchuk</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7051910</v>
+        <v>7239204</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-02-06 12:30</t>
+          <t>2025-02-23 13:05</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1天 12小时 45分钟 25秒</t>
+          <t>0天 18小时 35分钟 17秒</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>36.75694444444444</v>
+        <v>18.58805555555556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Baseball</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Test Matches</t>
+          <t>NCAA Division I</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Zimbabwe v Ireland,  Only Match Test Match, from Queens Sports Club</t>
+          <t>Alabama A&amp;M Bulldogs - Florida A&amp;M Rattlers</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7082447</v>
+        <v>7150887</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -859,69 +859,122 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-02-06 16:00</t>
+          <t>2025-02-24 04:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1天 9小时 15分钟 26秒</t>
+          <t>0天 3小时 40分钟 23秒</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>33.25722222222223</v>
+        <v>3.673055555555556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Handball</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>National League, Women</t>
+          <t>Logan Cup</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HC Holon - Bnei Hertzeliya W</t>
+          <t>Matabeleland Tuskers v Mountaineers, Logan Cup Match 17, from Queens Sports Club</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7108455</v>
+        <v>7155546</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2天 15小时 40分钟 35秒</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>63.67638888888889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Handball</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.lig</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Zeytinburnu Irmak SK - Bahcelievler Belediyesi SK</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>7238690</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2025-02-07 02:30</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0天 22小时 45分钟 30秒</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>22.75833333333333</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-02-22 20:00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1天 11小时 40分钟 36秒</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>35.67666666666666</v>
       </c>
     </row>
   </sheetData>
